--- a/data/RYG.xlsx
+++ b/data/RYG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>RYG</t>
@@ -11245,7 +11245,7 @@
         <v>3.89075060479E11</v>
       </c>
       <c r="C29" s="25" t="n">
-        <v>5.76910139395E11</v>
+        <v>6.83944075529E11</v>
       </c>
       <c r="E29" s="25" t="n">
         <v>4.49715610134E11</v>
@@ -11257,7 +11257,7 @@
         <v>5.80856967404E11</v>
       </c>
       <c r="H29" s="25" t="n">
-        <v>5.76910139395E11</v>
+        <v>6.83944075529E11</v>
       </c>
       <c r="I29" s="25" t="n">
         <v>7.28855305051E11</v>
@@ -11437,7 +11437,7 @@
         <v>7.8740533911E10</v>
       </c>
       <c r="C35" s="25" t="n">
-        <v>1.96198030438E11</v>
+        <v>3.03231966572E11</v>
       </c>
       <c r="E35" s="25" t="n">
         <v>1.514409724E11</v>
@@ -11449,7 +11449,7 @@
         <v>1.87887082619E11</v>
       </c>
       <c r="H35" s="25" t="n">
-        <v>1.96198030438E11</v>
+        <v>3.03231966572E11</v>
       </c>
       <c r="I35" s="25" t="n">
         <v>3.04019444479E11</v>
@@ -12333,7 +12333,7 @@
         <v>4.567813357E9</v>
       </c>
       <c r="C63" s="25" t="n">
-        <v>9.015857542E9</v>
+        <v>7.271284762E9</v>
       </c>
       <c r="E63" s="25" t="n">
         <v>1.724782406E9</v>
@@ -12345,7 +12345,7 @@
         <v>6.784842521E9</v>
       </c>
       <c r="H63" s="25" t="n">
-        <v>9.015857542E9</v>
+        <v>7.271284762E9</v>
       </c>
       <c r="I63" s="25" t="n">
         <v>2.258396574E9</v>
@@ -12365,7 +12365,7 @@
         <v>0.0</v>
       </c>
       <c r="C64" s="25" t="n">
-        <v>-1.6038776968E10</v>
+        <v>-1.4294204188E10</v>
       </c>
       <c r="E64" s="25" t="n">
         <v>0.0</v>
@@ -12377,7 +12377,7 @@
         <v>0.0</v>
       </c>
       <c r="H64" s="25" t="n">
-        <v>-1.6038776968E10</v>
+        <v>-1.4294204188E10</v>
       </c>
       <c r="I64" s="25" t="n">
         <v>0.0</v>
@@ -12525,7 +12525,7 @@
         <v>3.406952627E9</v>
       </c>
       <c r="C69" s="25" t="n">
-        <v>5.412013667E9</v>
+        <v>5.412013666E9</v>
       </c>
       <c r="E69" s="25" t="n">
         <v>3.908217889E9</v>
@@ -12537,7 +12537,7 @@
         <v>4.910748407E9</v>
       </c>
       <c r="H69" s="25" t="n">
-        <v>5.412013667E9</v>
+        <v>5.412013666E9</v>
       </c>
       <c r="I69" s="25" t="n">
         <v>5.913278928E9</v>
@@ -12589,7 +12589,7 @@
         <v>2.005061042E9</v>
       </c>
       <c r="C71" s="25" t="n">
-        <v>2.00506104E9</v>
+        <v>2.005061039E9</v>
       </c>
       <c r="E71" s="25" t="n">
         <v>5.01265262E8</v>
@@ -12601,7 +12601,7 @@
         <v>1.50379578E9</v>
       </c>
       <c r="H71" s="25" t="n">
-        <v>2.00506104E9</v>
+        <v>2.005061039E9</v>
       </c>
       <c r="I71" s="25" t="n">
         <v>5.01265262E8</v>
@@ -12845,7 +12845,7 @@
         <v>5.80657983239E11</v>
       </c>
       <c r="C79" s="25" t="n">
-        <v>8.96090912921E11</v>
+        <v>8.64219493965E11</v>
       </c>
       <c r="E79" s="25" t="n">
         <v>6.49437174295E11</v>
@@ -12857,7 +12857,7 @@
         <v>6.74457758268E11</v>
       </c>
       <c r="H79" s="25" t="n">
-        <v>8.96090912921E11</v>
+        <v>8.64219493965E11</v>
       </c>
       <c r="I79" s="25" t="n">
         <v>1.00393495849E12</v>
@@ -12877,7 +12877,7 @@
         <v>5.74459278189E11</v>
       </c>
       <c r="C80" s="25" t="n">
-        <v>8.83835385063E11</v>
+        <v>8.33835440802E11</v>
       </c>
       <c r="E80" s="25" t="n">
         <v>6.38097576891E11</v>
@@ -12889,7 +12889,7 @@
         <v>6.71404525634E11</v>
       </c>
       <c r="H80" s="25" t="n">
-        <v>8.83835385063E11</v>
+        <v>8.33835440802E11</v>
       </c>
       <c r="I80" s="25" t="n">
         <v>9.91179430632E11</v>
@@ -12909,7 +12909,7 @@
         <v>6.19870505E9</v>
       </c>
       <c r="C81" s="25" t="n">
-        <v>1.2255527858E10</v>
+        <v>3.0384053163E10</v>
       </c>
       <c r="E81" s="25" t="n">
         <v>1.1339597404E10</v>
@@ -12921,7 +12921,7 @@
         <v>3.053232634E9</v>
       </c>
       <c r="H81" s="25" t="n">
-        <v>1.2255527858E10</v>
+        <v>3.0384053163E10</v>
       </c>
       <c r="I81" s="25" t="n">
         <v>1.2755527858E10</v>
@@ -13197,7 +13197,7 @@
         <v>2.1981942951E10</v>
       </c>
       <c r="C90" s="25" t="n">
-        <v>2.1799553541E10</v>
+        <v>2.1122532154E10</v>
       </c>
       <c r="E90" s="25" t="n">
         <v>2.7767573084E10</v>
@@ -13209,7 +13209,7 @@
         <v>1.5581288962E10</v>
       </c>
       <c r="H90" s="25" t="n">
-        <v>2.1799553541E10</v>
+        <v>2.1122532154E10</v>
       </c>
       <c r="I90" s="25" t="n">
         <v>2.1247864521E10</v>
@@ -13325,7 +13325,7 @@
         <v>2.1370585921E10</v>
       </c>
       <c r="C94" s="25" t="n">
-        <v>1.6135887009E10</v>
+        <v>1.5458865622E10</v>
       </c>
       <c r="E94" s="25" t="n">
         <v>2.6772370351E10</v>
@@ -13337,7 +13337,7 @@
         <v>1.3321793317E10</v>
       </c>
       <c r="H94" s="25" t="n">
-        <v>1.6135887009E10</v>
+        <v>1.5458865622E10</v>
       </c>
       <c r="I94" s="25" t="n">
         <v>1.7054151999E10</v>
@@ -13677,7 +13677,7 @@
         <v>1.258815399E10</v>
       </c>
       <c r="C105" s="25" t="n">
-        <v>1.1024679814E10</v>
+        <v>6.1230124075E10</v>
       </c>
       <c r="E105" s="25" t="n">
         <v>1.9645702143E10</v>
@@ -13689,7 +13689,7 @@
         <v>6.7957712596E10</v>
       </c>
       <c r="H105" s="25" t="n">
-        <v>1.1024679814E10</v>
+        <v>6.1230124075E10</v>
       </c>
       <c r="I105" s="25" t="n">
         <v>1.3435853942E10</v>
@@ -13805,7 +13805,7 @@
         <v>0.0</v>
       </c>
       <c r="C109" s="25" t="n">
-        <v>0.0</v>
+        <v>1.878228E8</v>
       </c>
       <c r="E109" s="25" t="n">
         <v>5.1955136E8</v>
@@ -13817,7 +13817,7 @@
         <v>2.03673191E8</v>
       </c>
       <c r="H109" s="25" t="n">
-        <v>0.0</v>
+        <v>1.878228E8</v>
       </c>
       <c r="I109" s="25" t="n">
         <v>2.033595E8</v>
@@ -13837,7 +13837,7 @@
         <v>0.0</v>
       </c>
       <c r="C110" s="25" t="n">
-        <v>0.0</v>
+        <v>8.32528E7</v>
       </c>
       <c r="E110" s="25" t="n">
         <v>2.25031946E8</v>
@@ -13849,7 +13849,7 @@
         <v>8.840378E7</v>
       </c>
       <c r="H110" s="25" t="n">
-        <v>0.0</v>
+        <v>8.32528E7</v>
       </c>
       <c r="I110" s="25" t="n">
         <v>8.91306E7</v>
@@ -13965,7 +13965,7 @@
         <v>6.336510377E9</v>
       </c>
       <c r="C114" s="25" t="n">
-        <v>2.919659764E9</v>
+        <v>5.2854028425E10</v>
       </c>
       <c r="E114" s="25" t="n">
         <v>1.217172852E10</v>
@@ -13977,7 +13977,7 @@
         <v>5.9586175848E10</v>
       </c>
       <c r="H114" s="25" t="n">
-        <v>2.919659764E9</v>
+        <v>5.2854028425E10</v>
       </c>
       <c r="I114" s="25" t="n">
         <v>3.753788313E9</v>
@@ -13997,7 +13997,7 @@
         <v>2.345248417E10</v>
       </c>
       <c r="C115" s="25" t="n">
-        <v>3.41382575459E11</v>
+        <v>3.23254050154E11</v>
       </c>
       <c r="E115" s="25" t="n">
         <v>3.9554164256E10</v>
@@ -14009,7 +14009,7 @@
         <v>8.2741464058E10</v>
       </c>
       <c r="H115" s="25" t="n">
-        <v>3.41382575459E11</v>
+        <v>3.23254050154E11</v>
       </c>
       <c r="I115" s="25" t="n">
         <v>3.46085789545E11</v>
@@ -14029,7 +14029,7 @@
         <v>2.345248417E10</v>
       </c>
       <c r="C116" s="25" t="n">
-        <v>3.41382575459E11</v>
+        <v>3.02340118756E11</v>
       </c>
       <c r="E116" s="25" t="n">
         <v>3.9554164256E10</v>
@@ -14041,7 +14041,7 @@
         <v>8.2741464058E10</v>
       </c>
       <c r="H116" s="25" t="n">
-        <v>3.41382575459E11</v>
+        <v>3.02340118756E11</v>
       </c>
       <c r="I116" s="25" t="n">
         <v>3.27204258527E11</v>
@@ -14125,7 +14125,7 @@
         <v>0.0</v>
       </c>
       <c r="C119" s="25" t="n">
-        <v>0.0</v>
+        <v>2.0913931398E10</v>
       </c>
       <c r="E119" s="25" t="n">
         <v>0.0</v>
@@ -14137,7 +14137,7 @@
         <v>0.0</v>
       </c>
       <c r="H119" s="25" t="n">
-        <v>0.0</v>
+        <v>2.0913931398E10</v>
       </c>
       <c r="I119" s="25" t="n">
         <v>1.8881531018E10</v>
@@ -14285,7 +14285,7 @@
         <v>1.395602106583E12</v>
       </c>
       <c r="C124" s="25" t="n">
-        <v>1.637328304273E12</v>
+        <v>1.692068298858E12</v>
       </c>
       <c r="E124" s="25" t="n">
         <v>3.79039658695E11</v>
@@ -14297,7 +14297,7 @@
         <v>0.0</v>
       </c>
       <c r="H124" s="25" t="n">
-        <v>0.0</v>
+        <v>5.30414032901E11</v>
       </c>
       <c r="I124" s="25" t="n">
         <v>4.79547307397E11</v>
@@ -14317,7 +14317,7 @@
         <v>1.387043531085E12</v>
       </c>
       <c r="C125" s="25" t="n">
-        <v>1.622852104635E12</v>
+        <v>1.685835028066E12</v>
       </c>
       <c r="E125" s="25" t="n">
         <v>3.76878907009E11</v>
@@ -14329,7 +14329,7 @@
         <v>0.0</v>
       </c>
       <c r="H125" s="25" t="n">
-        <v>0.0</v>
+        <v>5.29887578407E11</v>
       </c>
       <c r="I125" s="25" t="n">
         <v>4.78797190388E11</v>
@@ -14349,7 +14349,7 @@
         <v>8.558575498E9</v>
       </c>
       <c r="C126" s="25" t="n">
-        <v>1.4476199638E10</v>
+        <v>6.233270792E9</v>
       </c>
       <c r="E126" s="25" t="n">
         <v>2.160751686E9</v>
@@ -14361,7 +14361,7 @@
         <v>0.0</v>
       </c>
       <c r="H126" s="25" t="n">
-        <v>0.0</v>
+        <v>5.26454494E8</v>
       </c>
       <c r="I126" s="25" t="n">
         <v>7.50117009E8</v>
@@ -14637,7 +14637,7 @@
         <v>1.104145849664E12</v>
       </c>
       <c r="C135" s="25" t="n">
-        <v>1.366786975199E12</v>
+        <v>1.425928927552E12</v>
       </c>
       <c r="E135" s="25" t="n">
         <v>3.11757999896E11</v>
@@ -14649,7 +14649,7 @@
         <v>2.85857431834E11</v>
       </c>
       <c r="H135" s="25" t="n">
-        <v>0.0</v>
+        <v>4.74997230324E11</v>
       </c>
       <c r="I135" s="25" t="n">
         <v>4.35345733774E11</v>
@@ -14669,7 +14669,7 @@
         <v>4.30773565603E11</v>
       </c>
       <c r="C136" s="25" t="n">
-        <v>6.94997885026E11</v>
+        <v>7.69837275615E11</v>
       </c>
       <c r="E136" s="25" t="n">
         <v>2.48660196181E11</v>
@@ -14681,7 +14681,7 @@
         <v>1.17687061948E11</v>
       </c>
       <c r="H136" s="25" t="n">
-        <v>0.0</v>
+        <v>3.16294275282E11</v>
       </c>
       <c r="I136" s="25" t="n">
         <v>3.23591522218E11</v>
@@ -14701,7 +14701,7 @@
         <v>6.61426135013E11</v>
       </c>
       <c r="C137" s="25" t="n">
-        <v>6.56088787825E11</v>
+        <v>6.47873186615E11</v>
       </c>
       <c r="E137" s="25" t="n">
         <v>6.1220456508E10</v>
@@ -14713,7 +14713,7 @@
         <v>1.65381477825E11</v>
       </c>
       <c r="H137" s="25" t="n">
-        <v>0.0</v>
+        <v>1.58257760754E11</v>
       </c>
       <c r="I137" s="25" t="n">
         <v>1.1034791474E11</v>
@@ -14733,7 +14733,7 @@
         <v>1.1946149048E10</v>
       </c>
       <c r="C138" s="25" t="n">
-        <v>1.5700302348E10</v>
+        <v>8.218465322E9</v>
       </c>
       <c r="E138" s="25" t="n">
         <v>1.877347207E9</v>
@@ -14745,7 +14745,7 @@
         <v>2.788892061E9</v>
       </c>
       <c r="H138" s="25" t="n">
-        <v>0.0</v>
+        <v>4.45194288E8</v>
       </c>
       <c r="I138" s="25" t="n">
         <v>1.406296816E9</v>
@@ -14925,7 +14925,7 @@
         <v>7.189359078E9</v>
       </c>
       <c r="C144" s="25" t="n">
-        <v>0.0</v>
+        <v>8.758836895E9</v>
       </c>
       <c r="E144" s="25" t="n">
         <v>2.213344502E9</v>
@@ -14937,7 +14937,7 @@
         <v>0.0</v>
       </c>
       <c r="H144" s="25" t="n">
-        <v>0.0</v>
+        <v>-1.243997472E9</v>
       </c>
       <c r="I144" s="25" t="n">
         <v>3.485135679E9</v>
@@ -14957,7 +14957,7 @@
         <v>2.104855559E9</v>
       </c>
       <c r="C145" s="25" t="n">
-        <v>0.0</v>
+        <v>2.942754831E9</v>
       </c>
       <c r="E145" s="25" t="n">
         <v>3.45513782E8</v>
@@ -14969,7 +14969,7 @@
         <v>0.0</v>
       </c>
       <c r="H145" s="25" t="n">
-        <v>0.0</v>
+        <v>1.172229041E9</v>
       </c>
       <c r="I145" s="25" t="n">
         <v>1.642379738E9</v>
@@ -15213,7 +15213,7 @@
         <v>5.084503519E9</v>
       </c>
       <c r="C153" s="25" t="n">
-        <v>0.0</v>
+        <v>5.816082064E9</v>
       </c>
       <c r="E153" s="25" t="n">
         <v>1.86783072E9</v>
@@ -15225,7 +15225,7 @@
         <v>0.0</v>
       </c>
       <c r="H153" s="25" t="n">
-        <v>0.0</v>
+        <v>-2.416226513E9</v>
       </c>
       <c r="I153" s="25" t="n">
         <v>1.842755941E9</v>
@@ -15245,7 +15245,7 @@
         <v>5.2052133055E10</v>
       </c>
       <c r="C154" s="25" t="n">
-        <v>6.9863419816E10</v>
+        <v>6.1991179349E10</v>
       </c>
       <c r="E154" s="25" t="n">
         <v>1.5340404273E10</v>
@@ -15257,7 +15257,7 @@
         <v>2.0112940615E10</v>
       </c>
       <c r="H154" s="25" t="n">
-        <v>0.0</v>
+        <v>1.4636320922E10</v>
       </c>
       <c r="I154" s="25" t="n">
         <v>1.624911319E10</v>
@@ -15277,7 +15277,7 @@
         <v>4.6381960935E10</v>
       </c>
       <c r="C155" s="25" t="n">
-        <v>5.4107981894E10</v>
+        <v>5.6620018291E10</v>
       </c>
       <c r="E155" s="25" t="n">
         <v>1.4420624994E10</v>
@@ -15289,7 +15289,7 @@
         <v>1.1818795519E10</v>
       </c>
       <c r="H155" s="25" t="n">
-        <v>0.0</v>
+        <v>1.8019420152E10</v>
       </c>
       <c r="I155" s="25" t="n">
         <v>1.5367521803E10</v>
@@ -15501,7 +15501,7 @@
         <v>5.67017212E9</v>
       </c>
       <c r="C162" s="25" t="n">
-        <v>1.5755437922E10</v>
+        <v>5.371161058E9</v>
       </c>
       <c r="E162" s="25" t="n">
         <v>9.19779279E8</v>
@@ -15513,7 +15513,7 @@
         <v>8.294145096E9</v>
       </c>
       <c r="H162" s="25" t="n">
-        <v>0.0</v>
+        <v>-3.38309923E9</v>
       </c>
       <c r="I162" s="25" t="n">
         <v>8.81591387E8</v>
@@ -15533,7 +15533,7 @@
         <v>7.93258854409E11</v>
       </c>
       <c r="C163" s="25" t="n">
-        <v>6.33652881674E11</v>
+        <v>8.08131759092E11</v>
       </c>
       <c r="E163" s="25" t="n">
         <v>1.46758230185E11</v>
@@ -15545,7 +15545,7 @@
         <v>1.92955652228E11</v>
       </c>
       <c r="H163" s="25" t="n">
-        <v>0.0</v>
+        <v>2.18604262259E11</v>
       </c>
       <c r="I163" s="25" t="n">
         <v>1.2734298843E11</v>
@@ -15565,7 +15565,7 @@
         <v>4.64525863747E11</v>
       </c>
       <c r="C164" s="25" t="n">
-        <v>4.33730567204E11</v>
+        <v>4.70545034765E11</v>
       </c>
       <c r="E164" s="25" t="n">
         <v>7.2402342392E10</v>
@@ -15577,7 +15577,7 @@
         <v>1.12632169997E11</v>
       </c>
       <c r="H164" s="25" t="n">
-        <v>0.0</v>
+        <v>1.32764160831E11</v>
       </c>
       <c r="I164" s="25" t="n">
         <v>4.8765580937E10</v>
@@ -15597,7 +15597,7 @@
         <v>1.41892598612E11</v>
       </c>
       <c r="C165" s="25" t="n">
-        <v>5.3999976082E10</v>
+        <v>1.31021060704E11</v>
       </c>
       <c r="E165" s="25" t="n">
         <v>3.0334613028E10</v>
@@ -15609,7 +15609,7 @@
         <v>3.2692393224E10</v>
       </c>
       <c r="H165" s="25" t="n">
-        <v>0.0</v>
+        <v>3.694050578E10</v>
       </c>
       <c r="I165" s="25" t="n">
         <v>4.1910417919E10</v>
@@ -15629,7 +15629,7 @@
         <v>3.7392662405E10</v>
       </c>
       <c r="C166" s="25" t="n">
-        <v>3.3390692562E10</v>
+        <v>3.6797703957E10</v>
       </c>
       <c r="E166" s="25" t="n">
         <v>7.72709465E9</v>
@@ -15641,7 +15641,7 @@
         <v>8.179047067E9</v>
       </c>
       <c r="H166" s="25" t="n">
-        <v>0.0</v>
+        <v>9.82025833E9</v>
       </c>
       <c r="I166" s="25" t="n">
         <v>8.501020801E9</v>
@@ -15661,7 +15661,7 @@
         <v>1.49061744424E11</v>
       </c>
       <c r="C167" s="25" t="n">
-        <v>1.1129688623E11</v>
+        <v>1.68936743995E11</v>
       </c>
       <c r="E167" s="25" t="n">
         <v>3.5076558056E10</v>
@@ -15673,7 +15673,7 @@
         <v>3.872339682E10</v>
       </c>
       <c r="H167" s="25" t="n">
-        <v>0.0</v>
+        <v>3.9078995186E10</v>
       </c>
       <c r="I167" s="25" t="n">
         <v>2.694337347E10</v>
@@ -15693,7 +15693,7 @@
         <v>3.85985221E8</v>
       </c>
       <c r="C168" s="25" t="n">
-        <v>1.234759596E9</v>
+        <v>8.31215671E8</v>
       </c>
       <c r="E168" s="25" t="n">
         <v>1.217622059E9</v>
@@ -15705,7 +15705,7 @@
         <v>7.2864512E8</v>
       </c>
       <c r="H168" s="25" t="n">
-        <v>0.0</v>
+        <v>342132.0</v>
       </c>
       <c r="I168" s="25" t="n">
         <v>1.222595303E9</v>

--- a/data/RYG.xlsx
+++ b/data/RYG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>RYG</t>

--- a/data/RYG.xlsx
+++ b/data/RYG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>RYG</t>

--- a/data/RYG.xlsx
+++ b/data/RYG.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>RYG</t>
